--- a/bom/ظرفشویی/E53X.xlsx
+++ b/bom/ظرفشویی/E53X.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QC\bom\ظرفشویی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.rezaei\Desktop\bom\ظرفشویی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBD7DA3-4869-4406-B292-815C9779D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D7A47C-4B92-4FCC-8F78-70CAE752D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="خروجی ساده" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>نام کالا</t>
   </si>
@@ -1247,6 +1258,15 @@
   </si>
   <si>
     <t>سایر</t>
+  </si>
+  <si>
+    <t>سقف MDF (ابعاد 58*55 سانتیمتر ) (اینوکس)  محصول ظرفشویی CSC</t>
+  </si>
+  <si>
+    <t>‎1727021024</t>
+  </si>
+  <si>
+    <t>مهره مخزن نمک</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1314,17 +1334,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:B205"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3279,6 +3317,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="206" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A206" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A207" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207" s="6">
+        <v>1320300035</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
